--- a/data/pca/factorExposure/factorExposure_2009-05-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0176636232989988</v>
+        <v>-0.0171368783569239</v>
       </c>
       <c r="C2">
-        <v>-0.002165890841868758</v>
+        <v>0.001402119386970756</v>
       </c>
       <c r="D2">
-        <v>0.008492389142035773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009051385764468291</v>
+      </c>
+      <c r="E2">
+        <v>0.001489281770183597</v>
+      </c>
+      <c r="F2">
+        <v>-0.013513189111975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08765896046928361</v>
+        <v>-0.0908752385643269</v>
       </c>
       <c r="C4">
-        <v>-0.02029719485456027</v>
+        <v>0.01563209890561465</v>
       </c>
       <c r="D4">
-        <v>0.08066460522251621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08387255613275353</v>
+      </c>
+      <c r="E4">
+        <v>0.02879017641182209</v>
+      </c>
+      <c r="F4">
+        <v>0.03255959986987923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-4.422023520906705e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-6.04536887219342e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001389672646854666</v>
+      </c>
+      <c r="E5">
+        <v>3.361502832849633e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0001586314759366541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1559431869564159</v>
+        <v>-0.1637458102872189</v>
       </c>
       <c r="C6">
-        <v>-0.0334284757239111</v>
+        <v>0.03192632542880708</v>
       </c>
       <c r="D6">
-        <v>-0.02981112400890545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02064705574968906</v>
+      </c>
+      <c r="E6">
+        <v>0.01131720573579775</v>
+      </c>
+      <c r="F6">
+        <v>0.04073591217862901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05680660356447743</v>
+        <v>-0.06016003605818629</v>
       </c>
       <c r="C7">
-        <v>-0.001718446218805315</v>
+        <v>-0.001561627315015676</v>
       </c>
       <c r="D7">
-        <v>0.04661390536888349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05218984973253402</v>
+      </c>
+      <c r="E7">
+        <v>0.01223465942572688</v>
+      </c>
+      <c r="F7">
+        <v>0.04800166014007629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06008388943699072</v>
+        <v>-0.05618995105373804</v>
       </c>
       <c r="C8">
-        <v>0.009486786250945874</v>
+        <v>-0.01170326264645929</v>
       </c>
       <c r="D8">
-        <v>0.02603120164768974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03075245943022734</v>
+      </c>
+      <c r="E8">
+        <v>0.01663705843444149</v>
+      </c>
+      <c r="F8">
+        <v>-0.02687546821357899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06832675357083491</v>
+        <v>-0.07075850166168582</v>
       </c>
       <c r="C9">
-        <v>-0.01611465839673373</v>
+        <v>0.01112090758404614</v>
       </c>
       <c r="D9">
-        <v>0.08343513257856085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08724582251018068</v>
+      </c>
+      <c r="E9">
+        <v>0.02510494077791715</v>
+      </c>
+      <c r="F9">
+        <v>0.04903460125635353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08721065334222651</v>
+        <v>-0.08756163761329214</v>
       </c>
       <c r="C10">
-        <v>-0.01895661620518962</v>
+        <v>0.02313049991145755</v>
       </c>
       <c r="D10">
-        <v>-0.1685757652810808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1590680503453779</v>
+      </c>
+      <c r="E10">
+        <v>-0.03261294664307356</v>
+      </c>
+      <c r="F10">
+        <v>-0.05916640630617551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0887091340402235</v>
+        <v>-0.08567954228272279</v>
       </c>
       <c r="C11">
-        <v>-0.01745638421594125</v>
+        <v>0.01207302546892425</v>
       </c>
       <c r="D11">
-        <v>0.1148886308643954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1199550705056301</v>
+      </c>
+      <c r="E11">
+        <v>0.05096338273288617</v>
+      </c>
+      <c r="F11">
+        <v>0.02571682830712597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09605901497230669</v>
+        <v>-0.09022354870655777</v>
       </c>
       <c r="C12">
-        <v>-0.01619199938322134</v>
+        <v>0.00994042024899687</v>
       </c>
       <c r="D12">
-        <v>0.1214861722954371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1354535874199433</v>
+      </c>
+      <c r="E12">
+        <v>0.05342618138058421</v>
+      </c>
+      <c r="F12">
+        <v>0.03193488843802579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04434350840488249</v>
+        <v>-0.04395713320960355</v>
       </c>
       <c r="C13">
-        <v>-0.006773103776607375</v>
+        <v>0.003270060228262958</v>
       </c>
       <c r="D13">
-        <v>0.04877771833345058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05536405867837214</v>
+      </c>
+      <c r="E13">
+        <v>0.001239701892005281</v>
+      </c>
+      <c r="F13">
+        <v>0.0043154886129654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01874766952236941</v>
+        <v>-0.02223261641236931</v>
       </c>
       <c r="C14">
-        <v>-0.01489763300353687</v>
+        <v>0.01370104938715569</v>
       </c>
       <c r="D14">
-        <v>0.03266588091546722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03370601854429448</v>
+      </c>
+      <c r="E14">
+        <v>0.0212710759340763</v>
+      </c>
+      <c r="F14">
+        <v>0.0132220075187379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03474600867364747</v>
+        <v>-0.03486331250286481</v>
       </c>
       <c r="C15">
-        <v>-0.008069635636770468</v>
+        <v>0.006247420998914989</v>
       </c>
       <c r="D15">
-        <v>0.04838553527053497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04800955464491632</v>
+      </c>
+      <c r="E15">
+        <v>0.007721416572891729</v>
+      </c>
+      <c r="F15">
+        <v>0.02998937195626057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07209710871186745</v>
+        <v>-0.07013450834392773</v>
       </c>
       <c r="C16">
-        <v>-0.007162608495624817</v>
+        <v>0.001625687922195406</v>
       </c>
       <c r="D16">
-        <v>0.1177661122932751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.130493712031034</v>
+      </c>
+      <c r="E16">
+        <v>0.06511474722515022</v>
+      </c>
+      <c r="F16">
+        <v>0.02874370530987266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001408506968808497</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0004271266194817025</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.00232289882227451</v>
+      </c>
+      <c r="E17">
+        <v>0.001727653147901284</v>
+      </c>
+      <c r="F17">
+        <v>-0.002062558182585386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02599380510281981</v>
+        <v>-0.04419729749942294</v>
       </c>
       <c r="C18">
-        <v>0.001324950839427995</v>
+        <v>-0.00109434544750445</v>
       </c>
       <c r="D18">
-        <v>0.02361933403851916</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01833340153302517</v>
+      </c>
+      <c r="E18">
+        <v>-0.00444702431225454</v>
+      </c>
+      <c r="F18">
+        <v>-0.009445187042870356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06418374033608999</v>
+        <v>-0.06278635896743404</v>
       </c>
       <c r="C20">
-        <v>-0.006067634157935758</v>
+        <v>0.002151475576200874</v>
       </c>
       <c r="D20">
-        <v>0.07494318158354546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07982737586100878</v>
+      </c>
+      <c r="E20">
+        <v>0.06225593910418748</v>
+      </c>
+      <c r="F20">
+        <v>0.03007067509712252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04097780621593523</v>
+        <v>-0.04318422569081221</v>
       </c>
       <c r="C21">
-        <v>-0.01042412890879268</v>
+        <v>0.007712662445493396</v>
       </c>
       <c r="D21">
-        <v>0.0367325912731875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03746654128868593</v>
+      </c>
+      <c r="E21">
+        <v>0.003895348079916385</v>
+      </c>
+      <c r="F21">
+        <v>-0.023502568395996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03996841991779357</v>
+        <v>-0.04204583730792929</v>
       </c>
       <c r="C22">
-        <v>-0.001431011031026802</v>
+        <v>0.001027853092122373</v>
       </c>
       <c r="D22">
-        <v>0.003022272843580584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.009298098161650515</v>
+      </c>
+      <c r="E22">
+        <v>0.03365299863313392</v>
+      </c>
+      <c r="F22">
+        <v>-0.05450731117407257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.039930859206536</v>
+        <v>-0.04201439368092694</v>
       </c>
       <c r="C23">
-        <v>-0.001418309753129373</v>
+        <v>0.001015758386938563</v>
       </c>
       <c r="D23">
-        <v>0.00304090471844806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.009312100287741489</v>
+      </c>
+      <c r="E23">
+        <v>0.03368145248819778</v>
+      </c>
+      <c r="F23">
+        <v>-0.05456306462165551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07989316897860878</v>
+        <v>-0.07639336634889098</v>
       </c>
       <c r="C24">
-        <v>-0.008066252352862848</v>
+        <v>0.002561184961391537</v>
       </c>
       <c r="D24">
-        <v>0.119251428187008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1239886731921657</v>
+      </c>
+      <c r="E24">
+        <v>0.05001716752731771</v>
+      </c>
+      <c r="F24">
+        <v>0.03219639475178947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08449106364322082</v>
+        <v>-0.08117680370469581</v>
       </c>
       <c r="C25">
-        <v>-0.01039150757179426</v>
+        <v>0.005456718826248211</v>
       </c>
       <c r="D25">
-        <v>0.1062958253120881</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1115906896967064</v>
+      </c>
+      <c r="E25">
+        <v>0.03535681864128237</v>
+      </c>
+      <c r="F25">
+        <v>0.02908254750443227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0575062576705405</v>
+        <v>-0.06128763555444077</v>
       </c>
       <c r="C26">
-        <v>-0.01863316818743226</v>
+        <v>0.01536233812342241</v>
       </c>
       <c r="D26">
-        <v>0.04034741578130465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04898913855375282</v>
+      </c>
+      <c r="E26">
+        <v>0.02955439648167322</v>
+      </c>
+      <c r="F26">
+        <v>-0.005318644425490379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1396817543197919</v>
+        <v>-0.1474499591386899</v>
       </c>
       <c r="C28">
-        <v>-0.0199579949270858</v>
+        <v>0.02703936204141451</v>
       </c>
       <c r="D28">
-        <v>-0.260378490171549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2558067224227673</v>
+      </c>
+      <c r="E28">
+        <v>-0.06412674934901662</v>
+      </c>
+      <c r="F28">
+        <v>0.004804521727896512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02515420053956503</v>
+        <v>-0.02765622642729581</v>
       </c>
       <c r="C29">
-        <v>-0.009637971827126928</v>
+        <v>0.00894845348074228</v>
       </c>
       <c r="D29">
-        <v>0.03089290201475986</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03081715841622363</v>
+      </c>
+      <c r="E29">
+        <v>0.01649327732309274</v>
+      </c>
+      <c r="F29">
+        <v>-0.01370377824347738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05655593498466585</v>
+        <v>-0.05444128814061574</v>
       </c>
       <c r="C30">
-        <v>-0.007594806126183639</v>
+        <v>0.002732185973743842</v>
       </c>
       <c r="D30">
-        <v>0.07831642082295738</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08628834870189515</v>
+      </c>
+      <c r="E30">
+        <v>0.01317228050851468</v>
+      </c>
+      <c r="F30">
+        <v>0.08073979829030127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0509179605206715</v>
+        <v>-0.05139278409075392</v>
       </c>
       <c r="C31">
-        <v>-0.01829765400763826</v>
+        <v>0.0167018634441541</v>
       </c>
       <c r="D31">
-        <v>0.02375076953583143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02665410949903299</v>
+      </c>
+      <c r="E31">
+        <v>0.02821981513815508</v>
+      </c>
+      <c r="F31">
+        <v>-0.0007136752056204626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04736251321400124</v>
+        <v>-0.05152365810925207</v>
       </c>
       <c r="C32">
-        <v>-0.002775856290073129</v>
+        <v>-0.0008143486740598496</v>
       </c>
       <c r="D32">
-        <v>0.03144485634413746</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03576871213178817</v>
+      </c>
+      <c r="E32">
+        <v>0.03108480917712583</v>
+      </c>
+      <c r="F32">
+        <v>0.002210262302325535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08862033048183732</v>
+        <v>-0.08888443489207763</v>
       </c>
       <c r="C33">
-        <v>-0.01391736138448795</v>
+        <v>0.008024048753831437</v>
       </c>
       <c r="D33">
-        <v>0.09262935553928246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1051435599235374</v>
+      </c>
+      <c r="E33">
+        <v>0.05028934635879624</v>
+      </c>
+      <c r="F33">
+        <v>0.04419209789713863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06768248056544734</v>
+        <v>-0.06601932172922287</v>
       </c>
       <c r="C34">
-        <v>-0.01588636279047064</v>
+        <v>0.01092920062317414</v>
       </c>
       <c r="D34">
-        <v>0.1004205415599626</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1122543226824933</v>
+      </c>
+      <c r="E34">
+        <v>0.0385950941081756</v>
+      </c>
+      <c r="F34">
+        <v>0.03719062408897744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02623819454858623</v>
+        <v>-0.02757058419576688</v>
       </c>
       <c r="C35">
-        <v>-0.004401066076777184</v>
+        <v>0.003861530814925357</v>
       </c>
       <c r="D35">
-        <v>0.008346113286793039</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01146748168490372</v>
+      </c>
+      <c r="E35">
+        <v>0.0172452084314791</v>
+      </c>
+      <c r="F35">
+        <v>-0.0005683993380528223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02395235989791409</v>
+        <v>-0.02850347138681692</v>
       </c>
       <c r="C36">
-        <v>-0.00861460486616685</v>
+        <v>0.007406913683790417</v>
       </c>
       <c r="D36">
-        <v>0.03940079747516951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04084078488013202</v>
+      </c>
+      <c r="E36">
+        <v>0.01880143883672398</v>
+      </c>
+      <c r="F36">
+        <v>0.01559310763668296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002504981650576923</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.000747381025943308</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003067818130438474</v>
+      </c>
+      <c r="E37">
+        <v>0.0004540981246544366</v>
+      </c>
+      <c r="F37">
+        <v>-0.001431170062579298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1074156202761394</v>
+        <v>-0.09701322385566838</v>
       </c>
       <c r="C39">
-        <v>-0.02314970839792083</v>
+        <v>0.01649525819229854</v>
       </c>
       <c r="D39">
-        <v>0.1523175838447292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1532993058840957</v>
+      </c>
+      <c r="E39">
+        <v>0.06592446433507596</v>
+      </c>
+      <c r="F39">
+        <v>0.02158206374926278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03931437483525605</v>
+        <v>-0.04505944338889339</v>
       </c>
       <c r="C40">
-        <v>-0.01009314342668049</v>
+        <v>0.008931106443284906</v>
       </c>
       <c r="D40">
-        <v>0.02616057090762198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03315860838271091</v>
+      </c>
+      <c r="E40">
+        <v>-0.0004133909363170808</v>
+      </c>
+      <c r="F40">
+        <v>-0.01601711434516252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02518936949553994</v>
+        <v>-0.02767035591968647</v>
       </c>
       <c r="C41">
-        <v>-0.007985236533898947</v>
+        <v>0.007253259160616758</v>
       </c>
       <c r="D41">
-        <v>0.008974989654914955</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01071958044930183</v>
+      </c>
+      <c r="E41">
+        <v>0.01278913030102368</v>
+      </c>
+      <c r="F41">
+        <v>-0.007181578046307147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04109386281696634</v>
+        <v>-0.03976701850569349</v>
       </c>
       <c r="C43">
-        <v>-0.008688109139175292</v>
+        <v>0.007962982219933896</v>
       </c>
       <c r="D43">
-        <v>0.01933589985119252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02120364681782768</v>
+      </c>
+      <c r="E43">
+        <v>0.0272067691522204</v>
+      </c>
+      <c r="F43">
+        <v>-0.0154926411710603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05931502492825013</v>
+        <v>-0.07113426574643246</v>
       </c>
       <c r="C44">
-        <v>-0.02197908308064549</v>
+        <v>0.01840625509082032</v>
       </c>
       <c r="D44">
-        <v>0.09096807516646302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0894449148011579</v>
+      </c>
+      <c r="E44">
+        <v>0.05764961902250876</v>
+      </c>
+      <c r="F44">
+        <v>0.168676505103869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-3.675881185160331e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-9.196287730075539e-06</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-6.347604349866511e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0001383498370153902</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001480377882269203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02036702579229438</v>
+        <v>-0.02402334325013617</v>
       </c>
       <c r="C46">
-        <v>-0.004474230697103592</v>
+        <v>0.003516303189509417</v>
       </c>
       <c r="D46">
-        <v>0.01115952633102505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01428212247854071</v>
+      </c>
+      <c r="E46">
+        <v>0.03241658397343291</v>
+      </c>
+      <c r="F46">
+        <v>-0.00583047430816462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05386152910223599</v>
+        <v>-0.05324076032769127</v>
       </c>
       <c r="C47">
-        <v>-0.006475600512098778</v>
+        <v>0.005174523116869566</v>
       </c>
       <c r="D47">
-        <v>0.007695207987576466</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01192425975437633</v>
+      </c>
+      <c r="E47">
+        <v>0.02511192505894832</v>
+      </c>
+      <c r="F47">
+        <v>-0.03028823877800159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.048108276094643</v>
+        <v>-0.05150697377086864</v>
       </c>
       <c r="C48">
-        <v>-0.005681186758133416</v>
+        <v>0.002933268183685959</v>
       </c>
       <c r="D48">
-        <v>0.04991398385061186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05265255204113647</v>
+      </c>
+      <c r="E48">
+        <v>-0.004018709366777907</v>
+      </c>
+      <c r="F48">
+        <v>0.01449948046857627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1996919281909258</v>
+        <v>-0.2010916259558302</v>
       </c>
       <c r="C49">
-        <v>-0.0265913689315126</v>
+        <v>0.0236960076434167</v>
       </c>
       <c r="D49">
-        <v>-0.008598021001855952</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002751342071652443</v>
+      </c>
+      <c r="E49">
+        <v>0.02044036009081891</v>
+      </c>
+      <c r="F49">
+        <v>0.05023357322962198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04957960346644092</v>
+        <v>-0.05207489525131027</v>
       </c>
       <c r="C50">
-        <v>-0.01404993125747517</v>
+        <v>0.01252894041008317</v>
       </c>
       <c r="D50">
-        <v>0.02414150777548905</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02661545015678094</v>
+      </c>
+      <c r="E50">
+        <v>0.02989031507300115</v>
+      </c>
+      <c r="F50">
+        <v>0.0104923138222012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1529588299351545</v>
+        <v>-0.1463000532914798</v>
       </c>
       <c r="C52">
-        <v>-0.0231436978048992</v>
+        <v>0.02044264034984499</v>
       </c>
       <c r="D52">
-        <v>0.04143929189835036</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04401077915773041</v>
+      </c>
+      <c r="E52">
+        <v>0.02647374577307821</v>
+      </c>
+      <c r="F52">
+        <v>0.04083619155440171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1748736036443612</v>
+        <v>-0.168183632243942</v>
       </c>
       <c r="C53">
-        <v>-0.02536635941462571</v>
+        <v>0.02417556953526279</v>
       </c>
       <c r="D53">
-        <v>0.005319865169521531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.008007472154209907</v>
+      </c>
+      <c r="E53">
+        <v>0.03244488248419574</v>
+      </c>
+      <c r="F53">
+        <v>0.0743595463419765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01505650105759253</v>
+        <v>-0.01787307131624053</v>
       </c>
       <c r="C54">
-        <v>-0.01175328873258024</v>
+        <v>0.01085821129573216</v>
       </c>
       <c r="D54">
-        <v>0.03027156088271823</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02890678262622114</v>
+      </c>
+      <c r="E54">
+        <v>0.0207138615871311</v>
+      </c>
+      <c r="F54">
+        <v>-0.004967908489745918</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1177919727655944</v>
+        <v>-0.1156402099593194</v>
       </c>
       <c r="C55">
-        <v>-0.0217214874482126</v>
+        <v>0.02083023041907769</v>
       </c>
       <c r="D55">
-        <v>0.003214939499979793</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01060672557893198</v>
+      </c>
+      <c r="E55">
+        <v>0.03128952734526579</v>
+      </c>
+      <c r="F55">
+        <v>0.04515043436370681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1803629705489805</v>
+        <v>-0.1749615953188199</v>
       </c>
       <c r="C56">
-        <v>-0.02320393502555233</v>
+        <v>0.02237062853959172</v>
       </c>
       <c r="D56">
-        <v>-0.005659690654066682</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0003920314769965032</v>
+      </c>
+      <c r="E56">
+        <v>0.03374424952067967</v>
+      </c>
+      <c r="F56">
+        <v>0.05465689508221885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04316894958178807</v>
+        <v>-0.04290204127402457</v>
       </c>
       <c r="C58">
-        <v>-0.003758400536678531</v>
+        <v>-0.0007486575253729509</v>
       </c>
       <c r="D58">
-        <v>0.06700098834447449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07631479786567695</v>
+      </c>
+      <c r="E58">
+        <v>0.03808759422679676</v>
+      </c>
+      <c r="F58">
+        <v>-0.0349938441428067</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1640501144317602</v>
+        <v>-0.1702827053670189</v>
       </c>
       <c r="C59">
-        <v>-0.02147117976961345</v>
+        <v>0.02714774387234257</v>
       </c>
       <c r="D59">
-        <v>-0.2194684258753746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2148334554068378</v>
+      </c>
+      <c r="E59">
+        <v>-0.0520626464287786</v>
+      </c>
+      <c r="F59">
+        <v>-0.04116699260285942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2357832149289733</v>
+        <v>-0.2280885777445679</v>
       </c>
       <c r="C60">
-        <v>-0.007257177573273591</v>
+        <v>0.003130531127057894</v>
       </c>
       <c r="D60">
-        <v>0.03932703284923648</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03986036992929497</v>
+      </c>
+      <c r="E60">
+        <v>-0.004711082155872263</v>
+      </c>
+      <c r="F60">
+        <v>0.006062274403165391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07901281210424391</v>
+        <v>-0.0734305582400373</v>
       </c>
       <c r="C61">
-        <v>-0.01703275407085676</v>
+        <v>0.01131701244656166</v>
       </c>
       <c r="D61">
-        <v>0.113631864103977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1187394436936749</v>
+      </c>
+      <c r="E61">
+        <v>0.0442405349195272</v>
+      </c>
+      <c r="F61">
+        <v>0.01055162388660941</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.172300549797212</v>
+        <v>-0.1680645986920641</v>
       </c>
       <c r="C62">
-        <v>-0.0266718525403925</v>
+        <v>0.02478010307337257</v>
       </c>
       <c r="D62">
-        <v>0.001820743499024052</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.009206740220028577</v>
+      </c>
+      <c r="E62">
+        <v>0.03689306876484159</v>
+      </c>
+      <c r="F62">
+        <v>0.04056097434193946</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04288596547930364</v>
+        <v>-0.04694263487468533</v>
       </c>
       <c r="C63">
-        <v>-0.0059483881953123</v>
+        <v>0.00289864933045331</v>
       </c>
       <c r="D63">
-        <v>0.05375173466717467</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06332184501346649</v>
+      </c>
+      <c r="E63">
+        <v>0.02483976906132025</v>
+      </c>
+      <c r="F63">
+        <v>0.001344617528922503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1146667731965656</v>
+        <v>-0.1117606682615978</v>
       </c>
       <c r="C64">
-        <v>-0.01858990883234213</v>
+        <v>0.0149167494510127</v>
       </c>
       <c r="D64">
-        <v>0.03679503042886385</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04353180460539626</v>
+      </c>
+      <c r="E64">
+        <v>0.0274609223090735</v>
+      </c>
+      <c r="F64">
+        <v>0.02717476386308783</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1477538659039526</v>
+        <v>-0.1547982860422711</v>
       </c>
       <c r="C65">
-        <v>-0.03937522824078312</v>
+        <v>0.03869306913584258</v>
       </c>
       <c r="D65">
-        <v>-0.04991817679724304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03973316272618717</v>
+      </c>
+      <c r="E65">
+        <v>0.006696323588957573</v>
+      </c>
+      <c r="F65">
+        <v>0.03861553387411904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1295010360277566</v>
+        <v>-0.11634261155112</v>
       </c>
       <c r="C66">
-        <v>-0.02175933025126261</v>
+        <v>0.01468147509720456</v>
       </c>
       <c r="D66">
-        <v>0.1355461636519885</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1427238862253176</v>
+      </c>
+      <c r="E66">
+        <v>0.06814833385504809</v>
+      </c>
+      <c r="F66">
+        <v>0.02799457514726695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06300604675969231</v>
+        <v>-0.05582720074091771</v>
       </c>
       <c r="C67">
-        <v>-0.007158512377312955</v>
+        <v>0.004635456216663812</v>
       </c>
       <c r="D67">
-        <v>0.05373915594207369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05749007960622469</v>
+      </c>
+      <c r="E67">
+        <v>0.02479463377893711</v>
+      </c>
+      <c r="F67">
+        <v>-0.03379836094030281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1129174193952112</v>
+        <v>-0.1213800275857593</v>
       </c>
       <c r="C68">
-        <v>-0.02965735846719186</v>
+        <v>0.03740157950044248</v>
       </c>
       <c r="D68">
-        <v>-0.2618188999759304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2580291368142016</v>
+      </c>
+      <c r="E68">
+        <v>-0.08585673403903038</v>
+      </c>
+      <c r="F68">
+        <v>0.002261899175236759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03932055744878606</v>
+        <v>-0.03884717112898409</v>
       </c>
       <c r="C69">
-        <v>-0.002927021925382251</v>
+        <v>0.001883003826204893</v>
       </c>
       <c r="D69">
-        <v>0.0103029919257198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01099076782319956</v>
+      </c>
+      <c r="E69">
+        <v>0.02845844985415236</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005033508369723427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06926086556974967</v>
+        <v>-0.06891374895940572</v>
       </c>
       <c r="C70">
-        <v>0.02292101692944879</v>
+        <v>-0.02530555637420414</v>
       </c>
       <c r="D70">
-        <v>0.02769508331454678</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03175596761386106</v>
+      </c>
+      <c r="E70">
+        <v>-0.02755747610902506</v>
+      </c>
+      <c r="F70">
+        <v>-0.1856159583189791</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1314197719361176</v>
+        <v>-0.1416173339158558</v>
       </c>
       <c r="C71">
-        <v>-0.03467156680026576</v>
+        <v>0.04239333029335886</v>
       </c>
       <c r="D71">
-        <v>-0.2768340101595575</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2680103416229335</v>
+      </c>
+      <c r="E71">
+        <v>-0.09735303589717596</v>
+      </c>
+      <c r="F71">
+        <v>0.006620494938506311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1375507114013018</v>
+        <v>-0.1439236510634484</v>
       </c>
       <c r="C72">
-        <v>-0.03096075753130137</v>
+        <v>0.03073846760504864</v>
       </c>
       <c r="D72">
-        <v>0.002714964320875668</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0002821984919321538</v>
+      </c>
+      <c r="E72">
+        <v>0.03944392041383216</v>
+      </c>
+      <c r="F72">
+        <v>0.02986217693558316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2006525447398092</v>
+        <v>-0.2030603941184483</v>
       </c>
       <c r="C73">
-        <v>-0.0206747511204821</v>
+        <v>0.01654774064987427</v>
       </c>
       <c r="D73">
-        <v>0.01129803607520829</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0184116715050434</v>
+      </c>
+      <c r="E73">
+        <v>0.06262352938329574</v>
+      </c>
+      <c r="F73">
+        <v>0.0409103738401503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08777973869504913</v>
+        <v>-0.08899175596765493</v>
       </c>
       <c r="C74">
-        <v>-0.01508981792474443</v>
+        <v>0.01405451071825698</v>
       </c>
       <c r="D74">
-        <v>0.01259422663779511</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01663104139087723</v>
+      </c>
+      <c r="E74">
+        <v>0.04446696490472307</v>
+      </c>
+      <c r="F74">
+        <v>0.05103047225354115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1318882683869192</v>
+        <v>-0.1241521954520228</v>
       </c>
       <c r="C75">
-        <v>-0.0335720791390496</v>
+        <v>0.03109373682249362</v>
       </c>
       <c r="D75">
-        <v>0.0250329740106627</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03156550356530863</v>
+      </c>
+      <c r="E75">
+        <v>0.0590946856055771</v>
+      </c>
+      <c r="F75">
+        <v>0.02146247834477328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08089193758354582</v>
+        <v>-0.09220327335220012</v>
       </c>
       <c r="C77">
-        <v>-0.01523147428887556</v>
+        <v>0.01001870203974226</v>
       </c>
       <c r="D77">
-        <v>0.1174485589840563</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1207248157821101</v>
+      </c>
+      <c r="E77">
+        <v>0.04502545438033443</v>
+      </c>
+      <c r="F77">
+        <v>0.03509800280290464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09878521420424706</v>
+        <v>-0.09939976018465582</v>
       </c>
       <c r="C78">
-        <v>-0.04570855799200675</v>
+        <v>0.04127727359740621</v>
       </c>
       <c r="D78">
-        <v>0.1134932105465776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.111716147783894</v>
+      </c>
+      <c r="E78">
+        <v>0.0727788381021168</v>
+      </c>
+      <c r="F78">
+        <v>0.05153743095850989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1691387011609368</v>
+        <v>-0.1645098619405729</v>
       </c>
       <c r="C79">
-        <v>-0.02999542592701733</v>
+        <v>0.0278879830753543</v>
       </c>
       <c r="D79">
-        <v>0.01047457626084474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01747349501514062</v>
+      </c>
+      <c r="E79">
+        <v>0.04856555493889999</v>
+      </c>
+      <c r="F79">
+        <v>0.013014206255496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07972197760206619</v>
+        <v>-0.07841480214842642</v>
       </c>
       <c r="C80">
-        <v>-0.003657634276719228</v>
+        <v>0.0008341375031820601</v>
       </c>
       <c r="D80">
-        <v>0.05260601207006681</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05206022647669063</v>
+      </c>
+      <c r="E80">
+        <v>0.03720905025179423</v>
+      </c>
+      <c r="F80">
+        <v>-0.02884988684497555</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1186104875304993</v>
+        <v>-0.1134194880437631</v>
       </c>
       <c r="C81">
-        <v>-0.03525302099431855</v>
+        <v>0.03403946239789152</v>
       </c>
       <c r="D81">
-        <v>0.006462738083426249</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0121536536429343</v>
+      </c>
+      <c r="E81">
+        <v>0.05404448531222456</v>
+      </c>
+      <c r="F81">
+        <v>0.01742654716215007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1643105882350099</v>
+        <v>-0.1629628994035981</v>
       </c>
       <c r="C82">
-        <v>-0.02955327854375035</v>
+        <v>0.02910687363874177</v>
       </c>
       <c r="D82">
-        <v>0.004710043724774501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003734286074697968</v>
+      </c>
+      <c r="E82">
+        <v>0.02888991613794293</v>
+      </c>
+      <c r="F82">
+        <v>0.08210519097608679</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05865330629426289</v>
+        <v>-0.05325358901130196</v>
       </c>
       <c r="C83">
-        <v>-0.005734670895842892</v>
+        <v>0.003523055104151883</v>
       </c>
       <c r="D83">
-        <v>0.03841177003844302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04014167642475396</v>
+      </c>
+      <c r="E83">
+        <v>-0.004990439067230091</v>
+      </c>
+      <c r="F83">
+        <v>-0.03560238983508179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05966911791983557</v>
+        <v>-0.0552174073575096</v>
       </c>
       <c r="C84">
-        <v>-0.01408322401733245</v>
+        <v>0.01105888688450505</v>
       </c>
       <c r="D84">
-        <v>0.07697102941884196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07806479152125116</v>
+      </c>
+      <c r="E84">
+        <v>0.01349913433493201</v>
+      </c>
+      <c r="F84">
+        <v>0.0164274251926963</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1395950569821034</v>
+        <v>-0.1345790137756154</v>
       </c>
       <c r="C85">
-        <v>-0.03315694716593717</v>
+        <v>0.03190288673834129</v>
       </c>
       <c r="D85">
-        <v>0.006699337569808085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01082872122220336</v>
+      </c>
+      <c r="E85">
+        <v>0.04127078866600017</v>
+      </c>
+      <c r="F85">
+        <v>0.04811742474504115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09996845846101253</v>
+        <v>-0.09248641248323053</v>
       </c>
       <c r="C86">
-        <v>0.001445107468855305</v>
+        <v>-0.005045913404122505</v>
       </c>
       <c r="D86">
-        <v>0.02271226130008221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05715196253817539</v>
+      </c>
+      <c r="E86">
+        <v>0.2158358216702728</v>
+      </c>
+      <c r="F86">
+        <v>-0.8974677355205573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09417872962291836</v>
+        <v>-0.09125633299655173</v>
       </c>
       <c r="C87">
-        <v>-0.02944720926181407</v>
+        <v>0.021429926789616</v>
       </c>
       <c r="D87">
-        <v>0.07211386621803482</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09040338040062719</v>
+      </c>
+      <c r="E87">
+        <v>-0.06426839979247495</v>
+      </c>
+      <c r="F87">
+        <v>0.05004095011884076</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06250314815954662</v>
+        <v>-0.06122275158716056</v>
       </c>
       <c r="C88">
-        <v>-0.006617001305764304</v>
+        <v>0.003609482829820583</v>
       </c>
       <c r="D88">
-        <v>0.05073968166669774</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05107792066328964</v>
+      </c>
+      <c r="E88">
+        <v>0.02745224573109836</v>
+      </c>
+      <c r="F88">
+        <v>0.0141415185568657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1228892849733635</v>
+        <v>-0.1310662455376991</v>
       </c>
       <c r="C89">
-        <v>-0.01019215729722119</v>
+        <v>0.0174776640424109</v>
       </c>
       <c r="D89">
-        <v>-0.2382217853436756</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2407445360190366</v>
+      </c>
+      <c r="E89">
+        <v>-0.08691551698396949</v>
+      </c>
+      <c r="F89">
+        <v>-0.007570834285749132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1423545846762828</v>
+        <v>-0.1562450096664477</v>
       </c>
       <c r="C90">
-        <v>-0.03061195827631506</v>
+        <v>0.03909430704818388</v>
       </c>
       <c r="D90">
-        <v>-0.2624153853334151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2653283826425499</v>
+      </c>
+      <c r="E90">
+        <v>-0.1162045200697083</v>
+      </c>
+      <c r="F90">
+        <v>-0.007507743067715432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1245832286617463</v>
+        <v>-0.1210797460945592</v>
       </c>
       <c r="C91">
-        <v>-0.02421442653075521</v>
+        <v>0.02356616302616395</v>
       </c>
       <c r="D91">
-        <v>-0.0184904227164259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01373412094562873</v>
+      </c>
+      <c r="E91">
+        <v>0.05692816321667734</v>
+      </c>
+      <c r="F91">
+        <v>-0.00317255877280792</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1439421627912482</v>
+        <v>-0.1498832584211156</v>
       </c>
       <c r="C92">
-        <v>-0.0217542168813969</v>
+        <v>0.03024380920677373</v>
       </c>
       <c r="D92">
-        <v>-0.2912171478070233</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2903169802602084</v>
+      </c>
+      <c r="E92">
+        <v>-0.1028184091853051</v>
+      </c>
+      <c r="F92">
+        <v>-0.02219617645625174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1476636779443317</v>
+        <v>-0.1593466806834456</v>
       </c>
       <c r="C93">
-        <v>-0.02734630731948052</v>
+        <v>0.03439115252541434</v>
       </c>
       <c r="D93">
-        <v>-0.2592020207993866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2585267350111177</v>
+      </c>
+      <c r="E93">
+        <v>-0.07219687715142417</v>
+      </c>
+      <c r="F93">
+        <v>0.005137226668028156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.131338870701856</v>
+        <v>-0.1236179053390245</v>
       </c>
       <c r="C94">
-        <v>-0.02984946569908545</v>
+        <v>0.02676691528066303</v>
       </c>
       <c r="D94">
-        <v>0.04030022713964965</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04437797202187321</v>
+      </c>
+      <c r="E94">
+        <v>0.05894183971748455</v>
+      </c>
+      <c r="F94">
+        <v>0.03182908188969602</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1260933468478789</v>
+        <v>-0.1281037198169318</v>
       </c>
       <c r="C95">
-        <v>-0.01188220704344929</v>
+        <v>0.006423550872037562</v>
       </c>
       <c r="D95">
-        <v>0.0906025597025874</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1013191162185948</v>
+      </c>
+      <c r="E95">
+        <v>0.0607619571030393</v>
+      </c>
+      <c r="F95">
+        <v>0.004164290211264495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1446896955531305</v>
+        <v>-0.1339381008858292</v>
       </c>
       <c r="C96">
-        <v>0.9837038956317024</v>
+        <v>-0.9840975017825594</v>
       </c>
       <c r="D96">
-        <v>-0.02537090539031844</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05446336984719752</v>
+      </c>
+      <c r="E96">
+        <v>0.04999610823965882</v>
+      </c>
+      <c r="F96">
+        <v>0.04194665504073768</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1892590578580217</v>
+        <v>-0.1925993304040803</v>
       </c>
       <c r="C97">
-        <v>-4.557181948537682e-06</v>
+        <v>-0.001038548069288866</v>
       </c>
       <c r="D97">
-        <v>-0.02564902769158914</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02813777555701531</v>
+      </c>
+      <c r="E97">
+        <v>0.02767497961883199</v>
+      </c>
+      <c r="F97">
+        <v>-0.1123655410717265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1967358325606831</v>
+        <v>-0.2028545683680874</v>
       </c>
       <c r="C98">
-        <v>-0.01498437022788758</v>
+        <v>0.01054222617193055</v>
       </c>
       <c r="D98">
-        <v>0.008615245932595751</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01168564659309957</v>
+      </c>
+      <c r="E98">
+        <v>-0.07328703929507664</v>
+      </c>
+      <c r="F98">
+        <v>-0.1001408412577557</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05696049867579797</v>
+        <v>-0.05647542636946701</v>
       </c>
       <c r="C99">
-        <v>0.0008731032411213511</v>
+        <v>-0.002936186628830285</v>
       </c>
       <c r="D99">
-        <v>0.03829029287047381</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04323255713176824</v>
+      </c>
+      <c r="E99">
+        <v>0.02379050675167335</v>
+      </c>
+      <c r="F99">
+        <v>0.005095796164121844</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1445427554272135</v>
+        <v>-0.1314845019880182</v>
       </c>
       <c r="C100">
-        <v>0.03613433729337407</v>
+        <v>-0.04818451310784097</v>
       </c>
       <c r="D100">
-        <v>0.3970278078347991</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3593050325388483</v>
+      </c>
+      <c r="E100">
+        <v>-0.8835062893103429</v>
+      </c>
+      <c r="F100">
+        <v>-0.1415983563348851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02515447869240573</v>
+        <v>-0.02770645005016094</v>
       </c>
       <c r="C101">
-        <v>-0.009642337921237511</v>
+        <v>0.00897541752554209</v>
       </c>
       <c r="D101">
-        <v>0.03043869343847427</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03037949600759828</v>
+      </c>
+      <c r="E101">
+        <v>0.0160583042241517</v>
+      </c>
+      <c r="F101">
+        <v>-0.01505346207101861</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
